--- a/game_template.xlsx
+++ b/game_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\wasteland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B927760-FF2D-4EBC-9405-1B9FE6345314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1887E-D7D9-4DF5-A49B-E996D66CFA88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="players" sheetId="3" r:id="rId1"/>
@@ -116,12 +116,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -130,10 +145,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,6 +238,1156 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95661</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>437369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>332293</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>521856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7502E1-55C7-412F-B424-8128D5675357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648454" y="1008869"/>
+          <a:ext cx="847546" cy="655987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535607</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134527</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>371381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DAF330-E5C6-408A-9136-25ACF5FFE1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9699314" y="1341026"/>
+          <a:ext cx="209834" cy="173355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>284868</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>245211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D602952E-1413-4B5A-8D88-CAAB7C4236D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8831942" y="180441"/>
+          <a:ext cx="616633" cy="636270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390459</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>226261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>454861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FC6FD1-BD9E-4D1F-A792-B8BA4461E831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10775993" y="1369261"/>
+          <a:ext cx="263419" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222171</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>227039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246053</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>289904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EA090D-EB88-4E8A-B23A-18FE6C9ECD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11218619" y="227039"/>
+          <a:ext cx="634796" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>492968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>245310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519029</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>310080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BCAE4E-4A6E-4FB0-BE10-A2E72D986A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9656675" y="245310"/>
+          <a:ext cx="636975" cy="636270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53226</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB47BEEC-3696-4DEC-BB95-A764A0625565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10438760" y="207770"/>
+          <a:ext cx="627450" cy="630555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>119975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387298</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>444906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406675EA-B96E-4AEC-9B16-01FEF1AC360A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11116423" y="1315491"/>
+          <a:ext cx="267323" cy="272415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412555</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134261</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>513995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AC777B-631C-4093-B262-CB201FD386BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11409003" y="1336955"/>
+          <a:ext cx="332620" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220668</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>570586</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>436587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB697879-56CB-4678-904E-BE7736112310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995289" y="1310982"/>
+          <a:ext cx="349918" cy="268605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12088</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383182</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>564537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4301775E-E842-434A-8C8D-636A7FBDB048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9175795" y="2305707"/>
+          <a:ext cx="371094" cy="544830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442881</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>217630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15710</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C21B2F-D311-4279-A3C7-371AE6AF446B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9606588" y="2503630"/>
+          <a:ext cx="183743" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>455165</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22279</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>353674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FB6469-7343-4039-9CFE-0D1B7E41EC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9618872" y="1891009"/>
+          <a:ext cx="178028" cy="177165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8474</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>568544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>568544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF7FFBA-366E-40BA-961C-FAE899B72E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172181" y="1711544"/>
+          <a:ext cx="355854" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>460156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62C6910-2910-48DC-8FBA-418D645533CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10418379" y="1326931"/>
+          <a:ext cx="267254" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28181</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387845</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>567492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2104FD-05EE-4B75-8B06-EBECD61D96C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191888" y="2866827"/>
+          <a:ext cx="359664" cy="558165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>402888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A097AC5B-C2D9-4A14-BF0A-DA195807C639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9203121" y="3432810"/>
+          <a:ext cx="363474" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40268</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417077</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>563682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F34309A-C707-4486-8745-3A39C864C6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9203975" y="4015542"/>
+          <a:ext cx="376809" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59121</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>422595</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16126446-8A45-4573-B91C-95B0F8E9C2A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9222828" y="4591706"/>
+          <a:ext cx="363474" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426983</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>384612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D3B2ED-1610-417C-99DF-59E0EC3ECF9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9590690" y="3061137"/>
+          <a:ext cx="181838" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430794</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>207448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>610727</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>386518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F4FABA-497D-455A-A65C-0F36AB3CF927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9594501" y="3636448"/>
+          <a:ext cx="179933" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421268</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608821</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>373381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFABA40-ADBA-450C-AF65-F6C187B92B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9584975" y="4187191"/>
+          <a:ext cx="187553" cy="186690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>436311</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14855</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>364906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F1080E-8509-4197-9B99-242C51573F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9600018" y="4757836"/>
+          <a:ext cx="189458" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -515,44 +1680,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E6020-4573-4AEA-BED0-1D111BB5F77D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -725,628 +1890,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA246229-D39C-4F9F-AEA3-DDA15D0110A1}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="8.88671875" style="1"/>
+    <col min="1" max="14" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>0</v>
       </c>
     </row>
